--- a/results/mape/hose_12_week.xlsx
+++ b/results/mape/hose_12_week.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamm\Documents\GitHub\GBM_Frontier_Market\mape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\BISS\EMTH0009 - Master Thesis\GitHub\GBM_Frontier_Market\results\mape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E2A503-3C7B-4678-846E-72CE25312BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126FA094-1609-4797-ACAA-2EF7E4C46681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5505" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{C9636A8F-A656-4B80-9EB4-7632E50F9A04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9636A8F-A656-4B80-9EB4-7632E50F9A04}"/>
   </bookViews>
   <sheets>
     <sheet name="hose_short_term" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>ACB</t>
   </si>
@@ -144,15 +144,6 @@
   </si>
   <si>
     <t>MAPE(%)</t>
-  </si>
-  <si>
-    <t>high accuracy</t>
-  </si>
-  <si>
-    <t>reasonable forecast</t>
-  </si>
-  <si>
-    <t>good forcast</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8476218C-A25B-4E31-85FA-E6DF3CCAA36E}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1847,45 +1838,6 @@
       <c r="I34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36">
-        <f>COUNTIF(D3:D34,"&lt;=10")</f>
-        <v>28</v>
-      </c>
-      <c r="G36">
-        <f>COUNTIF(G3:G34,"&lt;=10")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37">
-        <f>COUNTIFS(D3:D34, "&gt;10", D3:D34, "&lt;=20")</f>
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <f>COUNTIFS(G3:G34, "&gt;10", G3:G34, "&lt;=20")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38">
-        <f>COUNTIFS(D3:D34, "&gt;20", D3:D34, "&lt;=50")</f>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f>COUNTIFS(G3:G34, "&gt;20", G3:G34, "&lt;=50")</f>
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
